--- a/WIP/工作簿1.xlsx
+++ b/WIP/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC24897-B557-409E-BCCA-1873F3D9986B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F1137-B927-42FE-96A8-E3B750CF23B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66A71BB3-FAB3-4C6E-B08D-99BDD3605F8F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>FUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength actual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost scaling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost actual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,127 +457,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EE6243-B59C-492C-911E-FBBD4247CE93}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <f>A2*2.4</f>
+      <c r="C2">
+        <f>B2*2.4</f>
         <v>12</v>
       </c>
-      <c r="C2">
-        <f>B2*1.5</f>
+      <c r="D2">
+        <f>C2*1.5</f>
         <v>18</v>
       </c>
-      <c r="D2">
-        <f>C2*1.2</f>
+      <c r="E2">
+        <f>D2*1.2</f>
         <v>21.599999999999998</v>
       </c>
-      <c r="E2">
-        <f>D2*1.33</f>
+      <c r="F2">
+        <f>E2*1.33</f>
         <v>28.727999999999998</v>
       </c>
-      <c r="F2">
-        <f>E2*1.5</f>
+      <c r="G2">
+        <f>F2*1.5</f>
         <v>43.091999999999999</v>
       </c>
-      <c r="G2">
-        <f>F2*1.25</f>
+      <c r="H2">
+        <f>G2*1.25</f>
         <v>53.864999999999995</v>
       </c>
-      <c r="H2">
-        <f>G2*1.5</f>
+      <c r="I2">
+        <f>H2*1.5</f>
         <v>80.797499999999985</v>
-      </c>
-      <c r="I2">
-        <f>H2*1.25</f>
-        <v>100.99687499999999</v>
       </c>
       <c r="J2">
         <f>I2*1.25</f>
+        <v>100.99687499999999</v>
+      </c>
+      <c r="K2">
+        <f>J2*1.25</f>
         <v>126.24609374999999</v>
       </c>
-      <c r="K2">
-        <f>J2*2</f>
+      <c r="L2">
+        <f>K2*2</f>
         <v>252.49218749999997</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>29</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>40</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>54</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>81</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>101</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>126</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <f>B4*1.5</f>
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <f>C4*1.25</f>
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <f>D4*1.25</f>
+        <v>93.75</v>
+      </c>
+      <c r="F4">
+        <f>E4*1.5</f>
+        <v>140.625</v>
+      </c>
+      <c r="G4">
+        <f>F4*1.5</f>
+        <v>210.9375</v>
+      </c>
+      <c r="H4">
+        <f>G4*1.25</f>
+        <v>263.671875</v>
+      </c>
+      <c r="I4">
+        <f>H4*1.25</f>
+        <v>329.58984375</v>
+      </c>
+      <c r="J4">
+        <f>I4*1.25</f>
+        <v>411.9873046875</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:L4" si="0">J4*1.25</f>
+        <v>514.984130859375</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>643.73016357421875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>95</v>
+      </c>
+      <c r="F5">
+        <v>140</v>
+      </c>
+      <c r="G5">
+        <v>210</v>
+      </c>
+      <c r="H5">
+        <v>260</v>
+      </c>
+      <c r="I5">
+        <v>325</v>
+      </c>
+      <c r="J5">
+        <v>410</v>
+      </c>
+      <c r="K5">
+        <v>515</v>
+      </c>
+      <c r="L5">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/WIP/工作簿1.xlsx
+++ b/WIP/工作簿1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F1137-B927-42FE-96A8-E3B750CF23B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC7C452-22CB-4482-8046-3E0F2E1C0E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66A71BB3-FAB3-4C6E-B08D-99BDD3605F8F}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,47 +505,47 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <f>B2*2.4</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <f>C2*1.5</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <f>D2*1.2</f>
-        <v>21.599999999999998</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="F2">
         <f>E2*1.33</f>
-        <v>28.727999999999998</v>
+        <v>57.455999999999996</v>
       </c>
       <c r="G2">
         <f>F2*1.5</f>
-        <v>43.091999999999999</v>
+        <v>86.183999999999997</v>
       </c>
       <c r="H2">
         <f>G2*1.25</f>
-        <v>53.864999999999995</v>
+        <v>107.72999999999999</v>
       </c>
       <c r="I2">
         <f>H2*1.5</f>
-        <v>80.797499999999985</v>
+        <v>161.59499999999997</v>
       </c>
       <c r="J2">
         <f>I2*1.25</f>
-        <v>100.99687499999999</v>
+        <v>201.99374999999998</v>
       </c>
       <c r="K2">
         <f>J2*1.25</f>
-        <v>126.24609374999999</v>
+        <v>252.49218749999997</v>
       </c>
       <c r="L2">
         <f>K2*2</f>
-        <v>252.49218749999997</v>
+        <v>504.98437499999994</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">

--- a/WIP/工作簿1.xlsx
+++ b/WIP/工作簿1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Games\unciv-windows64\mods\Emperors-and-Deities\WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\OneDrive\桌面\Unciv-Windows64\mods\Emperors-and-Deities\WIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC7C452-22CB-4482-8046-3E0F2E1C0E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13BB692-2212-45E9-B424-7BA09601AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66A71BB3-FAB3-4C6E-B08D-99BDD3605F8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66A71BB3-FAB3-4C6E-B08D-99BDD3605F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +201,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +307,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,12 +460,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -548,7 +548,7 @@
         <v>504.98437499999994</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -586,7 +586,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -634,7 +634,7 @@
         <v>643.73016357421875</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
